--- a/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
+++ b/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B23927-F1E4-461D-8ACE-D2C37BAE9C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ED46FD-C88D-4332-BDB5-2A6530929F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1500" yWindow="3180" windowWidth="21600" windowHeight="10485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>StdUser</t>
   </si>
@@ -56,6 +56,33 @@
   </si>
   <si>
     <t>FVA Job Type</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>CF Job Type</t>
+  </si>
+  <si>
+    <t>6291</t>
+  </si>
+  <si>
+    <t>Post Merger Integration</t>
+  </si>
+  <si>
+    <t>6301</t>
+  </si>
+  <si>
+    <t>Valuation Advisory</t>
+  </si>
+  <si>
+    <t>6311</t>
+  </si>
+  <si>
+    <t>Meissa Lee</t>
+  </si>
+  <si>
+    <t>Matthew Gemmell</t>
   </si>
 </sst>
 </file>
@@ -814,15 +841,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -840,6 +867,30 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9DE9B1-D193-42A1-A5D5-A99A375F2944}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +934,39 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
+++ b/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ED46FD-C88D-4332-BDB5-2A6530929F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D426F1D-2267-4B58-BCC0-17710E5543CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,7 +844,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
+++ b/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D426F1D-2267-4B58-BCC0-17710E5543CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7F33E5-C1F3-44F5-AA4F-EB9BBBBB23D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23184" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>StdUser</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>Matthew Gemmell</t>
+  </si>
+  <si>
+    <t>CVAS - IP Valuation</t>
+  </si>
+  <si>
+    <t>6521</t>
+  </si>
+  <si>
+    <t>Lender Education</t>
+  </si>
+  <si>
+    <t>6511</t>
   </si>
 </sst>
 </file>
@@ -841,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,6 +905,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -900,10 +928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9DE9B1-D193-42A1-A5D5-A99A375F2944}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,6 +995,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
+++ b/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7F33E5-C1F3-44F5-AA4F-EB9BBBBB23D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088FD596-4CB6-4D21-8C77-D4A0EA3F4F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23184" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1185" yWindow="435" windowWidth="21600" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>StdUser</t>
   </si>
@@ -853,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +921,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -930,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9DE9B1-D193-42A1-A5D5-A99A375F2944}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
+++ b/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088FD596-4CB6-4D21-8C77-D4A0EA3F4F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B71708-D1AA-4E9D-93F9-44075BE99398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1185" yWindow="435" windowWidth="21600" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1185" yWindow="435" windowWidth="21600" windowHeight="10740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>StdUser</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>6511</t>
+  </si>
+  <si>
+    <t>TAS - ESG Due Diligence &amp; Analytics</t>
+  </si>
+  <si>
+    <t>6531</t>
   </si>
 </sst>
 </file>
@@ -855,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,10 +942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9DE9B1-D193-42A1-A5D5-A99A375F2944}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,6 +1031,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
+++ b/TestData/TMTI0056875_56876_56877_VerifyNewJobTypeOnOpportunityEngagementManagerJobTypeObjPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B71708-D1AA-4E9D-93F9-44075BE99398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12E86B6-84F5-4668-9AAC-A02CE29CC770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="1185" yWindow="435" windowWidth="21600" windowHeight="10740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="5532" yWindow="3024" windowWidth="17244" windowHeight="8352" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -865,13 +865,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -887,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -895,7 +895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -903,7 +903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -911,7 +911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -927,7 +927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -945,16 +945,16 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -965,7 +965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -976,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -987,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -998,7 +998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
